--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3011517.003350241</v>
+        <v>3009223.407893647</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8550620.064818503</v>
+        <v>8550620.064818505</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>22.94971336712987</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>26.16098097421642</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247047</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>56.30830983498225</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>50.98074812542853</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +899,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>16.61609021059958</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>320.5426581944391</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>99.84759100840618</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>135.5705851936311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.4301205060158</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316074</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,19 +1345,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>158.8984114382025</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518785</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505377</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518785</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.040488224226</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187871</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>73.22341869628487</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3958,13 +3958,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>918.0161179218655</v>
+        <v>867.5113594131255</v>
       </c>
       <c r="C2" t="n">
-        <v>918.0161179218655</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>559.7504193151151</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>559.7504193151151</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4358,7 +4358,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
@@ -4367,13 +4367,13 @@
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218655</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218655</v>
+        <v>1254.111199477247</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
         <v>1565.661695681274</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.1026499885492</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="C4" t="n">
-        <v>496.1664670606423</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>108.1238672093993</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1584.950414897297</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>1295.533244860336</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X4" t="n">
-        <v>1067.543693962319</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="Y4" t="n">
-        <v>846.7511148187889</v>
+        <v>445.0465148290276</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.569348694473</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.606831754061</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="D5" t="n">
-        <v>1122.606831754061</v>
+        <v>547.3108956025778</v>
       </c>
       <c r="E5" t="n">
-        <v>736.8185791558167</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>729.8730784066132</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,16 +4565,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734406</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758594</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1323.155438708629</v>
       </c>
       <c r="V7" t="n">
-        <v>1638.191681214136</v>
+        <v>1068.470950502742</v>
       </c>
       <c r="W7" t="n">
-        <v>1638.191681214136</v>
+        <v>779.0537804657819</v>
       </c>
       <c r="X7" t="n">
-        <v>1410.202130316119</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4805,7 +4805,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4835,19 +4835,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2756.377687837644</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2756.377687837644</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.60903256753</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2030.14327430645</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4875,16 +4875,16 @@
         <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064582</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158134</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>943.7005868594143</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>774.7644039315074</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4963,16 +4963,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484846</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484846</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1353.338602587671</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1353.338602587671</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1125.349051689654</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>1125.349051689654</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5048,43 +5048,43 @@
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191924</v>
+        <v>427.7414352191923</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191924</v>
+        <v>923.0670414349509</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438179</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.355259300789</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2495.978408795857</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5185,25 +5185,25 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5349,22 +5349,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,19 +5595,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684977</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.28814409505</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1815.886107649656</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
-        <v>2367.795837888943</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,16 +5984,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6002,25 +6002,25 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6069,22 +6069,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597619</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>244.7670222746419</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1030.918378293891</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>861.9821953659841</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>711.8655559536484</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>563.9524623712553</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>417.0625148733449</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>249.8664155882248</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1433.359422267661</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1212.566843124131</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6455,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
@@ -6464,19 +6464,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6917,67 +6917,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7315,19 +7315,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7494,22 +7494,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7606,13 +7606,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>98.24448441976841</v>
+        <v>224.3355197601769</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.2063328744018</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>67.07129414993902</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,13 +25846,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>735581.0991961902</v>
+        <v>735581.0991961904</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>735581.0991961904</v>
+        <v>735581.0991961902</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>735581.0991961902</v>
+        <v>735581.0991961904</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>735581.0991961902</v>
+        <v>735581.0991961904</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26314,46 @@
         <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365059</v>
       </c>
-      <c r="J2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365057</v>
-      </c>
       <c r="N2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.609736506</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365061</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>7.913202394754092e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>49110.09270605448</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.550740372017562e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,40 +26418,40 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312017</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="E4" t="n">
+        <v>9947.14432176897</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9947.14432176897</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9947.144321768921</v>
+      </c>
+      <c r="H4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
+        <v>9947.144321768901</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9947.144321768877</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9947.144321768921</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9947.144321768921</v>
+      </c>
+      <c r="N4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9947.144321768912</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9947.144321768883</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9947.144321768877</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9947.144321768897</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9947.144321768897</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9947.144321768952</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9947.144321768963</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-647734.4620383458</v>
+        <v>-647734.4620383455</v>
       </c>
       <c r="C6" t="n">
-        <v>297378.6431180218</v>
+        <v>297378.6431180215</v>
       </c>
       <c r="D6" t="n">
-        <v>500817.3847301271</v>
+        <v>500817.3847301273</v>
       </c>
       <c r="E6" t="n">
-        <v>249592.4737834752</v>
+        <v>249557.7358580391</v>
       </c>
       <c r="F6" t="n">
-        <v>575004.9355908297</v>
+        <v>574970.1976653939</v>
       </c>
       <c r="G6" t="n">
-        <v>575004.9355908298</v>
+        <v>574970.1976653937</v>
       </c>
       <c r="H6" t="n">
-        <v>575004.9355908297</v>
+        <v>574970.1976653941</v>
       </c>
       <c r="I6" t="n">
-        <v>575004.9355908299</v>
+        <v>574970.1976653941</v>
       </c>
       <c r="J6" t="n">
-        <v>407399.7577808472</v>
+        <v>407365.0198554113</v>
       </c>
       <c r="K6" t="n">
-        <v>525894.8428847754</v>
+        <v>525860.1049593396</v>
       </c>
       <c r="L6" t="n">
-        <v>575004.9355908296</v>
+        <v>574970.1976653941</v>
       </c>
       <c r="M6" t="n">
-        <v>489949.9076553179</v>
+        <v>489915.1697298825</v>
       </c>
       <c r="N6" t="n">
-        <v>575004.9355908295</v>
+        <v>574970.1976653944</v>
       </c>
       <c r="O6" t="n">
-        <v>575004.9355908296</v>
+        <v>574970.1976653943</v>
       </c>
       <c r="P6" t="n">
-        <v>575004.9355908299</v>
+        <v>574970.1976653945</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26713,10 +26713,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.063161046444251e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.063161046444251e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>190.8166233022539</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>190.8166233022539</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>342.3231784038777</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>380.715064767495</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>90.94319932014659</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,25 +27585,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>201.1568951983995</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>365.3142798616622</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>90.37906745901438</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>186.3642471972067</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>83.01406815846369</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.5650514528861663</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468616</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.7856813609076</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,19 +28065,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>93.23923188562546</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31844,13 +31844,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>396.9700886943673</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437242</v>
@@ -31859,7 +31859,7 @@
         <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>160.6314956130967</v>
       </c>
       <c r="R12" t="n">
         <v>182.689256441856</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>379.4203056753705</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>368.6279838366857</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32315,22 +32315,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32476,7 +32476,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175675</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P21" t="n">
-        <v>321.1112257697157</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,13 +32789,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>453.4978307576758</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,19 +33029,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,28 +33500,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33737,28 +33737,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,13 +34363,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>322.7581251332984</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34787,10 +34787,10 @@
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>489.4415840126424</v>
+        <v>615.5326193530509</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,13 +35492,13 @@
         <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>254.8360547723489</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992797</v>
@@ -35507,7 +35507,7 @@
         <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>20.64972152707519</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789208</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>237.2862717533522</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>237.2862717533524</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36124,10 +36124,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P21" t="n">
-        <v>187.1368183553855</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>314.9434509778017</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,10 +36452,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,19 +36677,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
